--- a/results/pvalue_OFFSIDES_rare_transporter_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_rare_transporter_AUPR+AUROCperdrug.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.080</t>
+          <t>0.045</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6.403</t>
+          <t>6.589</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.357</t>
+          <t>3.876</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.331</t>
+          <t>2.891</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.049</t>
+          <t>6.238</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.013</t>
+          <t>7.693</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
